--- a/contracts_template.xlsx
+++ b/contracts_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t xml:space="preserve">Contract Name</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Flags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Graph</t>
   </si>
   <si>
     <t xml:space="preserve">Destination/Provider</t>
@@ -161,16 +164,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -434,77 +433,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="8.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="17.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="26.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="13" style="2" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="26.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="8.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/contracts_template.xlsx
+++ b/contracts_template.xlsx
@@ -435,8 +435,8 @@
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -451,9 +451,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="17.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="26.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="8.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="14" style="1" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
